--- a/Journaux de bord/JournalDeBord-AlexandreGratton.xlsx
+++ b/Journaux de bord/JournalDeBord-AlexandreGratton.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,16 @@
     <t>Création procédures stockées
 Aide au GUI
 Conception base de donnée</t>
+  </si>
+  <si>
+    <t>mercredi 2 février 2016</t>
+  </si>
+  <si>
+    <t>Création procédure stockée
+GUI
+Tests sur la bd
+Ajout création de compte
+Ajout checkbox dynamiques GUI</t>
   </si>
 </sst>
 </file>
@@ -83,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -134,11 +144,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,6 +191,12 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1048556"/>
+  <dimension ref="A1:B1048557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,44 +547,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048556" s="2"/>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048557" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Journaux de bord/JournalDeBord-AlexandreGratton.xlsx
+++ b/Journaux de bord/JournalDeBord-AlexandreGratton.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Création procédures stockées
 Aide au GUI
 Conception base de donnée</t>
-  </si>
-  <si>
-    <t>mercredi 2 février 2016</t>
   </si>
   <si>
     <t>Création procédure stockée
@@ -62,6 +59,32 @@
 Tests sur la bd
 Ajout création de compte
 Ajout checkbox dynamiques GUI</t>
+  </si>
+  <si>
+    <t>mercredi 3 février 2016</t>
+  </si>
+  <si>
+    <t>lundi 15 février 2016</t>
+  </si>
+  <si>
+    <t>mercredi 17 février 2016</t>
+  </si>
+  <si>
+    <t>lundi 8 février 2016</t>
+  </si>
+  <si>
+    <t>mercredi 10 février 2016</t>
+  </si>
+  <si>
+    <t>Création procédure stockée pour afficher les heures
+GUI
+Tests sur la bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création procédure stockée pour afficher les horaires
+GUI
+Tests sur la bd
+</t>
   </si>
 </sst>
 </file>
@@ -93,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -145,15 +168,22 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -163,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,11 +222,23 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1048557"/>
+  <dimension ref="A1:B1048562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +581,7 @@
     <col min="2" max="2" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -547,52 +589,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:2" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="9" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="10" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="11" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048557" s="2"/>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048562" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Journaux de bord/JournalDeBord-AlexandreGratton.xlsx
+++ b/Journaux de bord/JournalDeBord-AlexandreGratton.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,12 @@
 GUI
 Tests sur la bd
 </t>
+  </si>
+  <si>
+    <t>Lundi le 22 février 2016</t>
+  </si>
+  <si>
+    <t>Commentaires sur la forme HoraireSel</t>
   </si>
 </sst>
 </file>
@@ -569,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1048562"/>
+  <dimension ref="A1:B1048563"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,84 +599,92 @@
       <c r="A2" s="15"/>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:2" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="5" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="6" spans="1:2" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048562" s="2"/>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048563" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
